--- a/物理结构.xlsx
+++ b/物理结构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DBproject\DB\database_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F9C60F-FEC4-4261-A5CA-58AC20892727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD624A-588A-4892-B439-7F8B997EC911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="3610" windowWidth="19200" windowHeight="11500" firstSheet="3" activeTab="8" xr2:uid="{132D4EAC-A4D9-4786-A450-9A146AE140C4}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="19200" windowHeight="11360" firstSheet="3" activeTab="6" xr2:uid="{132D4EAC-A4D9-4786-A450-9A146AE140C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="167">
   <si>
     <t>customer_id</t>
   </si>
@@ -616,6 +616,10 @@
   </si>
   <si>
     <t>处理人员      (管理员)ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,12 +947,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -967,16 +965,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1314,230 +1318,230 @@
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>255</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>50</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>255</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>255</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>20</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>255</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1570,128 +1574,128 @@
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>255</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>255</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
+      <c r="D5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5"/>
@@ -1771,225 +1775,225 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>109</v>
       </c>
       <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>50</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2028,252 +2032,252 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>111</v>
       </c>
       <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
+      <c r="D10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2312,175 +2316,175 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>113</v>
       </c>
       <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>255</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2519,177 +2523,177 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>115</v>
       </c>
       <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2703,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C40CE5-70BE-4C2A-8817-BC915F8A23A2}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2723,211 +2727,236 @@
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C9" s="12">
         <v>50</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2966,225 +2995,225 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>119</v>
       </c>
       <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>255</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>50</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>255</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>255</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3200,7 +3229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA40476-F82E-4B54-AB28-30CCA37A4BD1}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3223,223 +3252,223 @@
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>121</v>
       </c>
       <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>255</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>50</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
